--- a/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierMembresLes Lillas.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierMembresLes Lillas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\Informatique C#\Esilv_année_2019\Wpf_Tennis\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBE7B2D-6D37-4F8E-B855-81C7FAE1F66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B49E8-599F-4F0B-9465-576912E3194D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="0" windowWidth="17280" windowHeight="7692" xr2:uid="{3C94EAE1-C335-45FF-B7F2-E0D4F0983EA6}"/>
+    <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{3C94EAE1-C335-45FF-B7F2-E0D4F0983EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>

--- a/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierMembresLes Lillas.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierMembresLes Lillas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B49E8-599F-4F0B-9465-576912E3194D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD9A67A-C764-4B90-A023-C5E7620380F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{3C94EAE1-C335-45FF-B7F2-E0D4F0983EA6}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Philippe</t>
   </si>
@@ -81,9 +81,6 @@
     <t>14 rue de la pierre</t>
   </si>
   <si>
-    <t>15 rue de la pierre</t>
-  </si>
-  <si>
     <t>Versailles</t>
   </si>
   <si>
@@ -126,16 +123,22 @@
     <t>F</t>
   </si>
   <si>
-    <t>Paulette</t>
-  </si>
-  <si>
     <t>Brigitte</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>JOCQUET</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>14 rue general leclerc</t>
+  </si>
+  <si>
+    <t>15 rue general leclerc</t>
+  </si>
+  <si>
+    <t>CLAUDE</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,19 +533,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3">
         <v>20570</v>
@@ -551,33 +554,33 @@
         <v>601020605</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
         <v>36597</v>
@@ -586,33 +589,33 @@
         <v>601020605</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
         <v>29353</v>
@@ -621,33 +624,33 @@
         <v>601020605</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3">
         <v>29143</v>
@@ -656,7 +659,7 @@
         <v>601020605</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -665,24 +668,24 @@
         <v>-4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3">
         <v>39130</v>
@@ -691,7 +694,7 @@
         <v>601020605</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -700,147 +703,147 @@
         <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3">
-        <v>39892</v>
+        <v>28480</v>
       </c>
       <c r="G7" s="2">
         <v>601020605</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2.5</v>
+        <v>10000</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3">
+        <v>19462</v>
+      </c>
+      <c r="G8">
+        <v>625242829</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>1500</v>
+      </c>
+      <c r="J8">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3">
-        <v>28480</v>
-      </c>
-      <c r="G8">
-        <v>601020605</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="K8" t="s">
         <v>12</v>
-      </c>
-      <c r="I8">
-        <v>10000</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="3">
-        <v>19462</v>
+        <v>43844</v>
       </c>
       <c r="G9">
-        <v>625242829</v>
+        <v>625986532</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K9" t="s">
         <v>12</v>
-      </c>
-      <c r="I9">
-        <v>1500</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3">
-        <v>36145</v>
-      </c>
-      <c r="G10">
-        <v>652859695</v>
+        <v>29353</v>
+      </c>
+      <c r="G10" s="2">
+        <v>625986589</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierMembresLes Lillas.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierMembresLes Lillas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathis\Documents\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD9A67A-C764-4B90-A023-C5E7620380F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4980FC5-9BEF-4C95-BC46-6358392BFF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{3C94EAE1-C335-45FF-B7F2-E0D4F0983EA6}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{3C94EAE1-C335-45FF-B7F2-E0D4F0983EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>Philippe</t>
   </si>
@@ -139,6 +139,60 @@
   </si>
   <si>
     <t>CLAUDE</t>
+  </si>
+  <si>
+    <t>GAUD</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>2 rue de la tour</t>
+  </si>
+  <si>
+    <t>FRID</t>
+  </si>
+  <si>
+    <t>Adelynne</t>
+  </si>
+  <si>
+    <t>45 rue du rond point</t>
+  </si>
+  <si>
+    <t>NEPLA</t>
+  </si>
+  <si>
+    <t>Françoise</t>
+  </si>
+  <si>
+    <t>12 rue saumure</t>
+  </si>
+  <si>
+    <t>MARNI</t>
+  </si>
+  <si>
+    <t>pauline</t>
+  </si>
+  <si>
+    <t>2 rue Francois Ferdinand</t>
+  </si>
+  <si>
+    <t>XIA</t>
+  </si>
+  <si>
+    <t>Nathalie</t>
+  </si>
+  <si>
+    <t>1 rue Lafonde</t>
+  </si>
+  <si>
+    <t>MIROIT</t>
+  </si>
+  <si>
+    <t>Marie-Pierre</t>
+  </si>
+  <si>
+    <t>12 rue Lamard</t>
   </si>
 </sst>
 </file>
@@ -513,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83FF20B-ACDB-4772-AC60-FB9E0FB06499}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -527,7 +581,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2"/>
     </row>
@@ -843,6 +897,216 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3">
+        <v>29316</v>
+      </c>
+      <c r="G11">
+        <v>658914278</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3">
+        <v>29244</v>
+      </c>
+      <c r="G12">
+        <v>652558741</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3">
+        <v>29527</v>
+      </c>
+      <c r="G13">
+        <v>658997412</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>200</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3">
+        <v>29462</v>
+      </c>
+      <c r="G14">
+        <v>606995241</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>500</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3">
+        <v>29312</v>
+      </c>
+      <c r="G15">
+        <v>615554782</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>150</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3">
+        <v>29419</v>
+      </c>
+      <c r="G16">
+        <v>653889741</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>80</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>23</v>
       </c>
     </row>
